--- a/dataalfabetizacion.xlsx
+++ b/dataalfabetizacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joicy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joicy\Downloads\trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0F9182-1B16-4329-9D7A-D12CF39F6027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2134B5F8-55B0-4621-8468-075B9ECB641E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F356AF9-4E4C-40B5-8F41-862A7B6F1399}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Departamentos</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>NOMBDEP</t>
+  </si>
+  <si>
+    <t>EIB</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -301,6 +304,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -629,15 +635,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442F3378-F1A7-41CF-8BCF-9F08B4F67530}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="1" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
@@ -647,11 +652,11 @@
       <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -682,12 +687,11 @@
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
+        <v>782</v>
+      </c>
+      <c r="C2" s="3">
         <v>15.35</v>
-      </c>
-      <c r="C2" s="3">
-        <f>(10578*100)/43216</f>
-        <v>24.477045538689374</v>
       </c>
       <c r="D2" s="3">
         <v>9</v>
@@ -721,12 +725,11 @@
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
+        <v>613</v>
+      </c>
+      <c r="C3" s="3">
         <v>34.130000000000003</v>
-      </c>
-      <c r="C3" s="3">
-        <f>(56777*100)/290244</f>
-        <v>19.561816954011107</v>
       </c>
       <c r="D3" s="3">
         <v>10</v>
@@ -760,12 +763,11 @@
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
+        <v>805</v>
+      </c>
+      <c r="C4" s="3">
         <v>84.49</v>
-      </c>
-      <c r="C4" s="3">
-        <f>(60306*100)/266158</f>
-        <v>22.65797007792364</v>
       </c>
       <c r="D4" s="3">
         <v>9</v>
@@ -799,12 +801,11 @@
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3">
         <v>34.619999999999997</v>
-      </c>
-      <c r="C5" s="3">
-        <f>(67270*100)/387169</f>
-        <v>17.374841477494325</v>
       </c>
       <c r="D5" s="3">
         <v>13</v>
@@ -838,12 +839,11 @@
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
+        <v>1018</v>
+      </c>
+      <c r="C6" s="3">
         <v>81.47</v>
-      </c>
-      <c r="C6" s="3">
-        <f>(92682*100)/390338</f>
-        <v>23.744037219025561</v>
       </c>
       <c r="D6" s="3">
         <v>10</v>
@@ -877,12 +877,11 @@
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
         <v>6.42</v>
-      </c>
-      <c r="C7" s="3">
-        <f>(14430*100)/65960</f>
-        <v>21.87689508793208</v>
       </c>
       <c r="D7" s="3">
         <v>10</v>
@@ -916,12 +915,11 @@
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
         <v>11</v>
-      </c>
-      <c r="C8" s="3">
-        <f>(14574*100)/87988</f>
-        <v>16.563622312133472</v>
       </c>
       <c r="D8" s="3">
         <v>17</v>
@@ -955,12 +953,11 @@
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
+        <v>817</v>
+      </c>
+      <c r="C9" s="3">
         <v>75.900000000000006</v>
-      </c>
-      <c r="C9" s="3">
-        <f>(168862*100)/721309</f>
-        <v>23.410493976922513</v>
       </c>
       <c r="D9" s="3">
         <v>17</v>
@@ -994,12 +991,11 @@
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
+        <v>773</v>
+      </c>
+      <c r="C10" s="3">
         <v>80.87</v>
-      </c>
-      <c r="C10" s="3">
-        <f>(49770*100)/215791</f>
-        <v>23.063983205972445</v>
       </c>
       <c r="D10" s="3">
         <v>10</v>
@@ -1033,12 +1029,11 @@
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
+        <v>422</v>
+      </c>
+      <c r="C11" s="3">
         <v>43.53</v>
-      </c>
-      <c r="C11" s="3">
-        <f>(52195*100)/240095</f>
-        <v>21.739311522522335</v>
       </c>
       <c r="D11" s="3">
         <v>15</v>
@@ -1072,12 +1067,11 @@
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
         <v>14.82</v>
-      </c>
-      <c r="C12" s="3">
-        <f>(17149*100)/98150</f>
-        <v>17.472236372898625</v>
       </c>
       <c r="D12" s="3">
         <v>14</v>
@@ -1111,12 +1105,11 @@
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
+        <v>477</v>
+      </c>
+      <c r="C13" s="3">
         <v>38.76</v>
-      </c>
-      <c r="C13" s="3">
-        <f>(78576*100)/375614</f>
-        <v>20.919348054119389</v>
       </c>
       <c r="D13" s="3">
         <v>18</v>
@@ -1150,12 +1143,11 @@
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
         <v>3.09</v>
-      </c>
-      <c r="C14" s="3">
-        <f>(9444*100)/42671</f>
-        <v>22.132127205830656</v>
       </c>
       <c r="D14" s="3">
         <v>10</v>
@@ -1189,12 +1181,11 @@
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
+        <v>129</v>
+      </c>
+      <c r="C15" s="3">
         <v>4.38</v>
-      </c>
-      <c r="C15" s="3">
-        <f>(9607*100)/40992</f>
-        <v>23.436280249804842</v>
       </c>
       <c r="D15" s="3">
         <v>9</v>
@@ -1228,12 +1219,11 @@
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
         <v>17.190000000000001</v>
-      </c>
-      <c r="C16" s="3">
-        <f>(235893*100)/1337874</f>
-        <v>17.631929464209634</v>
       </c>
       <c r="D16" s="3">
         <v>29</v>
@@ -1267,12 +1257,12 @@
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
+        <f>245+44+73+6+12+61+563</f>
+        <v>1004</v>
+      </c>
+      <c r="C17" s="3">
         <v>9.75</v>
-      </c>
-      <c r="C17" s="3">
-        <f>(14236*100)/60775</f>
-        <v>23.424105306458248</v>
       </c>
       <c r="D17" s="3">
         <v>26</v>
@@ -1306,12 +1296,11 @@
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3">
         <v>39.79</v>
-      </c>
-      <c r="C18" s="3">
-        <f>(7132*100)/41983</f>
-        <v>16.98782840673606</v>
       </c>
       <c r="D18" s="3">
         <v>19</v>
@@ -1345,12 +1334,11 @@
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3">
         <v>35.64</v>
-      </c>
-      <c r="C19" s="3">
-        <f>(8229*100)/50686</f>
-        <v>16.235252337923686</v>
       </c>
       <c r="D19" s="3">
         <v>7</v>
@@ -1384,12 +1372,11 @@
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
+        <v>191</v>
+      </c>
+      <c r="C20" s="3">
         <v>44.1</v>
-      </c>
-      <c r="C20" s="3">
-        <f>(17068*100)/86774</f>
-        <v>19.669486251642198</v>
       </c>
       <c r="D20" s="3">
         <v>10</v>
@@ -1423,12 +1410,11 @@
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="C21" s="3">
-        <f>(7119*100)/32484</f>
-        <v>21.915404506834133</v>
       </c>
       <c r="D21" s="3">
         <v>10</v>
@@ -1462,12 +1448,11 @@
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
+        <v>1028</v>
+      </c>
+      <c r="C22" s="3">
         <v>90.72</v>
-      </c>
-      <c r="C22" s="3">
-        <f>(180835*100)/856482</f>
-        <v>21.11369532576283</v>
       </c>
       <c r="D22" s="3">
         <v>12</v>
@@ -1501,12 +1486,12 @@
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
+        <f>3+4+6+1+51+15</f>
+        <v>80</v>
+      </c>
+      <c r="C23" s="3">
         <v>5.9</v>
-      </c>
-      <c r="C23" s="3">
-        <f>(6428*100)/35894</f>
-        <v>17.908285507327129</v>
       </c>
       <c r="D23" s="3">
         <v>16</v>
@@ -1540,12 +1525,11 @@
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
         <v>40.28</v>
-      </c>
-      <c r="C24" s="3">
-        <f>(16897*100)/108359</f>
-        <v>15.593536300630312</v>
       </c>
       <c r="D24" s="3">
         <v>12</v>
@@ -1579,12 +1563,11 @@
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
         <v>2.0699999999999998</v>
-      </c>
-      <c r="C25" s="3">
-        <f>(781*100)/3555</f>
-        <v>21.969057665260198</v>
       </c>
       <c r="D25" s="3">
         <v>7</v>
@@ -1618,12 +1601,11 @@
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
+        <v>540</v>
+      </c>
+      <c r="C26" s="3">
         <v>15.46</v>
-      </c>
-      <c r="C26" s="3">
-        <f>(11961*100)/55152</f>
-        <v>21.68733681462141</v>
       </c>
       <c r="D26" s="3">
         <v>27</v>
@@ -1654,7 +1636,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1683,25 +1665,25 @@
       <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1710,25 +1692,25 @@
       <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1737,25 +1719,25 @@
       <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1764,25 +1746,25 @@
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1791,25 +1773,25 @@
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1818,25 +1800,25 @@
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1845,25 +1827,25 @@
       <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1872,25 +1854,25 @@
       <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1899,25 +1881,25 @@
       <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1953,25 +1935,25 @@
       <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" s="8"/>
